--- a/src/test/resources/codeschemes/v1_dcat.xlsx
+++ b/src/test/resources/codeschemes/v1_dcat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti.tohmo/Projects/yti/yti-codelist-content-intake-service/src/test/resources/codeschemes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07B2520-B549-B34D-9AD0-B5ECA2ED5256}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512C52B3-3FDB-3745-8645-4067A209B349}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="31540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeSchemes" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
     <t>MEMBERSSHEET</t>
   </si>
   <si>
-    <t>INFODOMAIN</t>
+    <t>INFORMATIONDOMAIN</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/codeschemes/v1_dcat.xlsx
+++ b/src/test/resources/codeschemes/v1_dcat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti.tohmo/Projects/yti/yti-codelist-content-intake-service/src/test/resources/codeschemes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuukka\git\yti-codelist-content-intake-service\src\test\resources\codeschemes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512C52B3-3FDB-3745-8645-4067A209B349}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3C4622-555C-4ACC-B526-4AE5506D5DA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="20535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeSchemes" sheetId="1" r:id="rId1"/>
@@ -778,12 +778,12 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -924,9 +924,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -1637,9 +1637,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
